--- a/po_analysis_by_asin/B0C8JZNLZL_po_data.xlsx
+++ b/po_analysis_by_asin/B0C8JZNLZL_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,201 +452,337 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>660</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>1020</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45313</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>2580</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>1260</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45355</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45369</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45411</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>320</v>
+        <v>680</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45432</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>360</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45439</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>240</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45446</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45453</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45460</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>480</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45467</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45474</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>80</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45481</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>240</v>
+        <v>560</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45488</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>400</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45495</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45509</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>640</v>
+        <v>660</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45516</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>160</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45523</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>480</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45537</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>80</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45544</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>600</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45551</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>640</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45579</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>240</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45593</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B26" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B43" t="n">
         <v>1120</v>
       </c>
     </row>
@@ -661,7 +797,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,65 +819,121 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>5520</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45413</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>920</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45444</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>1120</v>
+        <v>720</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45474</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>1000</v>
+        <v>820</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45505</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>1280</v>
+        <v>980</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45536</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>1320</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45566</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B9" t="n">
+        <v>5520</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B16" t="n">
         <v>1360</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0C8JZNLZL_po_data.xlsx
+++ b/po_analysis_by_asin/B0C8JZNLZL_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -813,7 +814,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -935,6 +936,747 @@
       </c>
       <c r="B16" t="n">
         <v>1360</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>309</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-250.7916786480656</v>
+      </c>
+      <c r="D2" t="n">
+        <v>913.2631355489196</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>314</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-273.1235718813712</v>
+      </c>
+      <c r="D3" t="n">
+        <v>883.5850855484028</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>317</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-256.6704213090392</v>
+      </c>
+      <c r="D4" t="n">
+        <v>870.5724970014344</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>320</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-258.181823854159</v>
+      </c>
+      <c r="D5" t="n">
+        <v>948.8453748944132</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>323</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-233.3512532737852</v>
+      </c>
+      <c r="D6" t="n">
+        <v>955.0719762720428</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>325</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-225.1385779795161</v>
+      </c>
+      <c r="D7" t="n">
+        <v>959.6581855951936</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>339</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-205.3474384200671</v>
+      </c>
+      <c r="D8" t="n">
+        <v>916.9359713745482</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>342</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-225.8464851456566</v>
+      </c>
+      <c r="D9" t="n">
+        <v>910.5072721600735</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>344</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-238.4302598470239</v>
+      </c>
+      <c r="D10" t="n">
+        <v>924.7826106186926</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>347</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-199.4865620999718</v>
+      </c>
+      <c r="D11" t="n">
+        <v>914.8063922979445</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>350</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-220.0230208910144</v>
+      </c>
+      <c r="D12" t="n">
+        <v>941.0388441139095</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>352</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-245.2641339340131</v>
+      </c>
+      <c r="D13" t="n">
+        <v>933.9104791153678</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>355</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-225.8053398712694</v>
+      </c>
+      <c r="D14" t="n">
+        <v>924.5919044817784</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>361</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-223.0207689043973</v>
+      </c>
+      <c r="D15" t="n">
+        <v>944.4529508535428</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>366</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-250.8977055205335</v>
+      </c>
+      <c r="D16" t="n">
+        <v>935.9568425101122</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>372</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-227.467874841961</v>
+      </c>
+      <c r="D17" t="n">
+        <v>978.7842475049589</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>374</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-176.7185734113199</v>
+      </c>
+      <c r="D18" t="n">
+        <v>962.3813339411577</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>382</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-220.2980109716253</v>
+      </c>
+      <c r="D19" t="n">
+        <v>950.8638122189185</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>388</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-153.6929748344431</v>
+      </c>
+      <c r="D20" t="n">
+        <v>965.967004641725</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>391</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-163.4218357951243</v>
+      </c>
+      <c r="D21" t="n">
+        <v>993.1568626399242</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>393</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-181.4218664264652</v>
+      </c>
+      <c r="D22" t="n">
+        <v>952.5716935487649</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>407</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-212.1368489762532</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1010.124754314806</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>412</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-176.649413015434</v>
+      </c>
+      <c r="D24" t="n">
+        <v>968.6284332524298</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>429</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-109.4732887876597</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1052.237687128632</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>437</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-127.2075127690815</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1031.080037534932</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>440</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-134.7049052913397</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1031.035134892128</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>442</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-126.4458246979479</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1023.991578598071</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>445</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-135.3944679880381</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1032.660954593352</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>448</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-138.6598001540828</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1031.73693849971</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>451</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-100.4064164151576</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1040.578716791754</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>453</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-167.6956575697383</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1006.198544785055</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>456</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-118.5506667968104</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1029.529026813922</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>459</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-163.5743283315645</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1045.461078076515</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>461</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-121.9035286671905</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1044.145770372587</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>467</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-109.3804109152147</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1041.915410162231</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>470</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-130.516878348967</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1000.822996856299</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>472</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-137.1011057673529</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1039.801882503038</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>478</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-140.2211115433528</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1076.017623856826</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>480</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-69.30760120866564</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1021.109025662187</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>483</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-110.5352846254615</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1088.622549777875</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>494</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-60.117867883183</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1073.935965756042</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>500</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-65.83964830892228</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1105.251204131551</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>502</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-87.32944540958616</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1091.356632813293</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>505</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-90.45045181803685</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1101.681587985677</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>508</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-101.8967683821441</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1094.42185467911</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>510</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-94.67589912015116</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1073.366734199651</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>513</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-61.31505305322703</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1093.665537522543</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>516</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-48.51484782212163</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1088.683641697648</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>519</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-78.7959095900962</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1101.268441861977</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>521</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-55.62657217844387</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1097.30721430005</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0C8JZNLZL_po_data.xlsx
+++ b/po_analysis_by_asin/B0C8JZNLZL_po_data.xlsx
@@ -949,7 +949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -968,16 +968,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -986,12 +976,6 @@
       <c r="B2" t="n">
         <v>309</v>
       </c>
-      <c r="C2" t="n">
-        <v>-250.7916786480656</v>
-      </c>
-      <c r="D2" t="n">
-        <v>913.2631355489196</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1000,12 +984,6 @@
       <c r="B3" t="n">
         <v>314</v>
       </c>
-      <c r="C3" t="n">
-        <v>-273.1235718813712</v>
-      </c>
-      <c r="D3" t="n">
-        <v>883.5850855484028</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1014,12 +992,6 @@
       <c r="B4" t="n">
         <v>317</v>
       </c>
-      <c r="C4" t="n">
-        <v>-256.6704213090392</v>
-      </c>
-      <c r="D4" t="n">
-        <v>870.5724970014344</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1028,12 +1000,6 @@
       <c r="B5" t="n">
         <v>320</v>
       </c>
-      <c r="C5" t="n">
-        <v>-258.181823854159</v>
-      </c>
-      <c r="D5" t="n">
-        <v>948.8453748944132</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1042,12 +1008,6 @@
       <c r="B6" t="n">
         <v>323</v>
       </c>
-      <c r="C6" t="n">
-        <v>-233.3512532737852</v>
-      </c>
-      <c r="D6" t="n">
-        <v>955.0719762720428</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1056,12 +1016,6 @@
       <c r="B7" t="n">
         <v>325</v>
       </c>
-      <c r="C7" t="n">
-        <v>-225.1385779795161</v>
-      </c>
-      <c r="D7" t="n">
-        <v>959.6581855951936</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1070,12 +1024,6 @@
       <c r="B8" t="n">
         <v>339</v>
       </c>
-      <c r="C8" t="n">
-        <v>-205.3474384200671</v>
-      </c>
-      <c r="D8" t="n">
-        <v>916.9359713745482</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1084,12 +1032,6 @@
       <c r="B9" t="n">
         <v>342</v>
       </c>
-      <c r="C9" t="n">
-        <v>-225.8464851456566</v>
-      </c>
-      <c r="D9" t="n">
-        <v>910.5072721600735</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1098,12 +1040,6 @@
       <c r="B10" t="n">
         <v>344</v>
       </c>
-      <c r="C10" t="n">
-        <v>-238.4302598470239</v>
-      </c>
-      <c r="D10" t="n">
-        <v>924.7826106186926</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1112,12 +1048,6 @@
       <c r="B11" t="n">
         <v>347</v>
       </c>
-      <c r="C11" t="n">
-        <v>-199.4865620999718</v>
-      </c>
-      <c r="D11" t="n">
-        <v>914.8063922979445</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1126,12 +1056,6 @@
       <c r="B12" t="n">
         <v>350</v>
       </c>
-      <c r="C12" t="n">
-        <v>-220.0230208910144</v>
-      </c>
-      <c r="D12" t="n">
-        <v>941.0388441139095</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1140,12 +1064,6 @@
       <c r="B13" t="n">
         <v>352</v>
       </c>
-      <c r="C13" t="n">
-        <v>-245.2641339340131</v>
-      </c>
-      <c r="D13" t="n">
-        <v>933.9104791153678</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1154,12 +1072,6 @@
       <c r="B14" t="n">
         <v>355</v>
       </c>
-      <c r="C14" t="n">
-        <v>-225.8053398712694</v>
-      </c>
-      <c r="D14" t="n">
-        <v>924.5919044817784</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1168,12 +1080,6 @@
       <c r="B15" t="n">
         <v>361</v>
       </c>
-      <c r="C15" t="n">
-        <v>-223.0207689043973</v>
-      </c>
-      <c r="D15" t="n">
-        <v>944.4529508535428</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1182,12 +1088,6 @@
       <c r="B16" t="n">
         <v>366</v>
       </c>
-      <c r="C16" t="n">
-        <v>-250.8977055205335</v>
-      </c>
-      <c r="D16" t="n">
-        <v>935.9568425101122</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1196,12 +1096,6 @@
       <c r="B17" t="n">
         <v>372</v>
       </c>
-      <c r="C17" t="n">
-        <v>-227.467874841961</v>
-      </c>
-      <c r="D17" t="n">
-        <v>978.7842475049589</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1210,12 +1104,6 @@
       <c r="B18" t="n">
         <v>374</v>
       </c>
-      <c r="C18" t="n">
-        <v>-176.7185734113199</v>
-      </c>
-      <c r="D18" t="n">
-        <v>962.3813339411577</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1224,12 +1112,6 @@
       <c r="B19" t="n">
         <v>382</v>
       </c>
-      <c r="C19" t="n">
-        <v>-220.2980109716253</v>
-      </c>
-      <c r="D19" t="n">
-        <v>950.8638122189185</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1238,12 +1120,6 @@
       <c r="B20" t="n">
         <v>388</v>
       </c>
-      <c r="C20" t="n">
-        <v>-153.6929748344431</v>
-      </c>
-      <c r="D20" t="n">
-        <v>965.967004641725</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1252,12 +1128,6 @@
       <c r="B21" t="n">
         <v>391</v>
       </c>
-      <c r="C21" t="n">
-        <v>-163.4218357951243</v>
-      </c>
-      <c r="D21" t="n">
-        <v>993.1568626399242</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1266,12 +1136,6 @@
       <c r="B22" t="n">
         <v>393</v>
       </c>
-      <c r="C22" t="n">
-        <v>-181.4218664264652</v>
-      </c>
-      <c r="D22" t="n">
-        <v>952.5716935487649</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1280,12 +1144,6 @@
       <c r="B23" t="n">
         <v>407</v>
       </c>
-      <c r="C23" t="n">
-        <v>-212.1368489762532</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1010.124754314806</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1294,12 +1152,6 @@
       <c r="B24" t="n">
         <v>412</v>
       </c>
-      <c r="C24" t="n">
-        <v>-176.649413015434</v>
-      </c>
-      <c r="D24" t="n">
-        <v>968.6284332524298</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1308,12 +1160,6 @@
       <c r="B25" t="n">
         <v>429</v>
       </c>
-      <c r="C25" t="n">
-        <v>-109.4732887876597</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1052.237687128632</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1322,12 +1168,6 @@
       <c r="B26" t="n">
         <v>437</v>
       </c>
-      <c r="C26" t="n">
-        <v>-127.2075127690815</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1031.080037534932</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1336,12 +1176,6 @@
       <c r="B27" t="n">
         <v>440</v>
       </c>
-      <c r="C27" t="n">
-        <v>-134.7049052913397</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1031.035134892128</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1350,12 +1184,6 @@
       <c r="B28" t="n">
         <v>442</v>
       </c>
-      <c r="C28" t="n">
-        <v>-126.4458246979479</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1023.991578598071</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1364,12 +1192,6 @@
       <c r="B29" t="n">
         <v>445</v>
       </c>
-      <c r="C29" t="n">
-        <v>-135.3944679880381</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1032.660954593352</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1378,12 +1200,6 @@
       <c r="B30" t="n">
         <v>448</v>
       </c>
-      <c r="C30" t="n">
-        <v>-138.6598001540828</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1031.73693849971</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1392,12 +1208,6 @@
       <c r="B31" t="n">
         <v>451</v>
       </c>
-      <c r="C31" t="n">
-        <v>-100.4064164151576</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1040.578716791754</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1406,12 +1216,6 @@
       <c r="B32" t="n">
         <v>453</v>
       </c>
-      <c r="C32" t="n">
-        <v>-167.6956575697383</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1006.198544785055</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1420,12 +1224,6 @@
       <c r="B33" t="n">
         <v>456</v>
       </c>
-      <c r="C33" t="n">
-        <v>-118.5506667968104</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1029.529026813922</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1434,12 +1232,6 @@
       <c r="B34" t="n">
         <v>459</v>
       </c>
-      <c r="C34" t="n">
-        <v>-163.5743283315645</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1045.461078076515</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1448,12 +1240,6 @@
       <c r="B35" t="n">
         <v>461</v>
       </c>
-      <c r="C35" t="n">
-        <v>-121.9035286671905</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1044.145770372587</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1462,12 +1248,6 @@
       <c r="B36" t="n">
         <v>467</v>
       </c>
-      <c r="C36" t="n">
-        <v>-109.3804109152147</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1041.915410162231</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1476,12 +1256,6 @@
       <c r="B37" t="n">
         <v>470</v>
       </c>
-      <c r="C37" t="n">
-        <v>-130.516878348967</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1000.822996856299</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1490,12 +1264,6 @@
       <c r="B38" t="n">
         <v>472</v>
       </c>
-      <c r="C38" t="n">
-        <v>-137.1011057673529</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1039.801882503038</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1504,12 +1272,6 @@
       <c r="B39" t="n">
         <v>478</v>
       </c>
-      <c r="C39" t="n">
-        <v>-140.2211115433528</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1076.017623856826</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1518,12 +1280,6 @@
       <c r="B40" t="n">
         <v>480</v>
       </c>
-      <c r="C40" t="n">
-        <v>-69.30760120866564</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1021.109025662187</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1532,12 +1288,6 @@
       <c r="B41" t="n">
         <v>483</v>
       </c>
-      <c r="C41" t="n">
-        <v>-110.5352846254615</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1088.622549777875</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1546,12 +1296,6 @@
       <c r="B42" t="n">
         <v>494</v>
       </c>
-      <c r="C42" t="n">
-        <v>-60.117867883183</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1073.935965756042</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1560,12 +1304,6 @@
       <c r="B43" t="n">
         <v>500</v>
       </c>
-      <c r="C43" t="n">
-        <v>-65.83964830892228</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1105.251204131551</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1574,12 +1312,6 @@
       <c r="B44" t="n">
         <v>502</v>
       </c>
-      <c r="C44" t="n">
-        <v>-87.32944540958616</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1091.356632813293</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1588,12 +1320,6 @@
       <c r="B45" t="n">
         <v>505</v>
       </c>
-      <c r="C45" t="n">
-        <v>-90.45045181803685</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1101.681587985677</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1602,12 +1328,6 @@
       <c r="B46" t="n">
         <v>508</v>
       </c>
-      <c r="C46" t="n">
-        <v>-101.8967683821441</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1094.42185467911</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1616,12 +1336,6 @@
       <c r="B47" t="n">
         <v>510</v>
       </c>
-      <c r="C47" t="n">
-        <v>-94.67589912015116</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1073.366734199651</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1630,12 +1344,6 @@
       <c r="B48" t="n">
         <v>513</v>
       </c>
-      <c r="C48" t="n">
-        <v>-61.31505305322703</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1093.665537522543</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1644,12 +1352,6 @@
       <c r="B49" t="n">
         <v>516</v>
       </c>
-      <c r="C49" t="n">
-        <v>-48.51484782212163</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1088.683641697648</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1658,12 +1360,6 @@
       <c r="B50" t="n">
         <v>519</v>
       </c>
-      <c r="C50" t="n">
-        <v>-78.7959095900962</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1101.268441861977</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1671,12 +1367,6 @@
       </c>
       <c r="B51" t="n">
         <v>521</v>
-      </c>
-      <c r="C51" t="n">
-        <v>-55.62657217844387</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1097.30721430005</v>
       </c>
     </row>
   </sheetData>
